--- a/refs/heads/rc2-umbrella/StructureDefinition-svc-questionnaireresponse.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-svc-questionnaireresponse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="284">
   <si>
     <t>Path</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>Needed to allow editing of the questionnaire response in a manner that enforces the constraints of the original form.</t>
+  </si>
+  <si>
+    <t>http:OA//who-int.github.io/svc/refs/heads/rc2/SVC-Questionnaire</t>
   </si>
   <si>
     <t>Event.instantiates</t>
@@ -2667,7 +2670,7 @@
         <v>42</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>42</v>
@@ -2721,10 +2724,10 @@
         <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>42</v>
@@ -2732,7 +2735,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2758,10 +2761,10 @@
         <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2812,7 +2815,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2838,7 +2841,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2916,7 +2919,7 @@
         <v>99</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -2942,10 +2945,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
@@ -2967,16 +2970,16 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3026,7 +3029,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3052,7 +3055,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3078,10 +3081,10 @@
         <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3132,7 +3135,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3158,7 +3161,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3184,16 +3187,16 @@
         <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3218,13 +3221,13 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3242,7 +3245,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>50</v>
@@ -3257,22 +3260,22 @@
         <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3291,19 +3294,19 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3352,7 +3355,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3367,18 +3370,18 @@
         <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3401,19 +3404,19 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3462,7 +3465,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3477,22 +3480,22 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3511,19 +3514,19 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3572,7 +3575,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3587,22 +3590,22 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3621,19 +3624,19 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -3682,7 +3685,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3697,18 +3700,18 @@
         <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3731,19 +3734,19 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -3792,7 +3795,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3810,15 +3813,15 @@
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3841,16 +3844,16 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3900,7 +3903,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3912,13 +3915,13 @@
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -3926,7 +3929,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3952,10 +3955,10 @@
         <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4006,7 +4009,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4024,7 +4027,7 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4032,7 +4035,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4110,7 +4113,7 @@
         <v>99</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4136,10 +4139,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>42</v>
@@ -4218,7 +4221,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4244,11 +4247,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4270,10 +4273,10 @@
         <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>111</v>
@@ -4328,7 +4331,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4354,7 +4357,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4380,14 +4383,14 @@
         <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4436,7 +4439,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>50</v>
@@ -4454,7 +4457,7 @@
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4462,7 +4465,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4488,16 +4491,16 @@
         <v>64</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4546,7 +4549,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4564,7 +4567,7 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -4572,7 +4575,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4598,14 +4601,14 @@
         <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4654,7 +4657,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4672,7 +4675,7 @@
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -4680,7 +4683,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4703,16 +4706,16 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4762,7 +4765,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4780,7 +4783,7 @@
         <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -4788,7 +4791,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4814,10 +4817,10 @@
         <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4868,7 +4871,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4886,7 +4889,7 @@
         <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -4894,7 +4897,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4972,7 +4975,7 @@
         <v>99</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -4998,10 +5001,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>42</v>
@@ -5023,16 +5026,16 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5082,7 +5085,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5108,11 +5111,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5134,10 +5137,10 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>111</v>
@@ -5192,7 +5195,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5218,7 +5221,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5241,19 +5244,19 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5278,13 +5281,13 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -5302,7 +5305,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5320,7 +5323,7 @@
         <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5328,7 +5331,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5354,14 +5357,14 @@
         <v>42</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5410,7 +5413,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5428,7 +5431,7 @@
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5436,7 +5439,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5462,14 +5465,14 @@
         <v>42</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5518,7 +5521,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5536,7 +5539,7 @@
         <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>

--- a/refs/heads/rc2-umbrella/StructureDefinition-svc-questionnaireresponse.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-svc-questionnaireresponse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="283">
   <si>
     <t>Path</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>Needed to allow editing of the questionnaire response in a manner that enforces the constraints of the original form.</t>
-  </si>
-  <si>
-    <t>http:OA//who-int.github.io/svc/refs/heads/rc2/SVC-Questionnaire</t>
   </si>
   <si>
     <t>Event.instantiates</t>
@@ -2670,7 +2667,7 @@
         <v>42</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>42</v>
@@ -2724,10 +2721,10 @@
         <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>42</v>
@@ -2735,7 +2732,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2761,10 +2758,10 @@
         <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2815,7 +2812,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2841,7 +2838,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2919,7 +2916,7 @@
         <v>99</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -2945,10 +2942,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
@@ -2970,16 +2967,16 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3029,7 +3026,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3055,7 +3052,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3081,10 +3078,10 @@
         <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3135,7 +3132,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3161,7 +3158,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3187,16 +3184,16 @@
         <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3221,14 +3218,14 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3245,7 +3242,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>50</v>
@@ -3260,22 +3257,22 @@
         <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3294,19 +3291,19 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3355,7 +3352,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3370,18 +3367,18 @@
         <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3404,19 +3401,19 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3465,7 +3462,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3480,22 +3477,22 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3514,19 +3511,19 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3575,7 +3572,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3590,22 +3587,22 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3624,19 +3621,19 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -3685,7 +3682,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3700,18 +3697,18 @@
         <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3734,19 +3731,19 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -3795,7 +3792,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3813,15 +3810,15 @@
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3844,16 +3841,16 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3903,7 +3900,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3915,13 +3912,13 @@
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -3929,7 +3926,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3955,10 +3952,10 @@
         <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4009,7 +4006,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4027,7 +4024,7 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4035,7 +4032,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4113,7 +4110,7 @@
         <v>99</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4139,10 +4136,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>42</v>
@@ -4221,7 +4218,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4247,11 +4244,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4273,10 +4270,10 @@
         <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>111</v>
@@ -4331,7 +4328,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4357,7 +4354,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4383,14 +4380,14 @@
         <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4439,7 +4436,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>50</v>
@@ -4457,7 +4454,7 @@
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4465,7 +4462,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4491,16 +4488,16 @@
         <v>64</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4549,7 +4546,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4567,7 +4564,7 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -4575,7 +4572,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4601,14 +4598,14 @@
         <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4657,7 +4654,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4675,7 +4672,7 @@
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -4683,7 +4680,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4706,16 +4703,16 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4765,7 +4762,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4783,7 +4780,7 @@
         <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -4791,7 +4788,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4817,10 +4814,10 @@
         <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4871,7 +4868,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4889,7 +4886,7 @@
         <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -4897,7 +4894,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4975,7 +4972,7 @@
         <v>99</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5001,10 +4998,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>42</v>
@@ -5026,16 +5023,16 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5085,7 +5082,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5111,11 +5108,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5137,10 +5134,10 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>111</v>
@@ -5195,7 +5192,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5221,7 +5218,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5244,19 +5241,19 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5281,14 +5278,14 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="X39" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="X39" t="s" s="2">
+      <c r="Y39" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5305,7 +5302,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5323,7 +5320,7 @@
         <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5331,7 +5328,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5357,14 +5354,14 @@
         <v>42</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5413,7 +5410,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5431,7 +5428,7 @@
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5439,7 +5436,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5465,14 +5462,14 @@
         <v>42</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5521,7 +5518,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5539,7 +5536,7 @@
         <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
